--- a/biology/Botanique/Ceratostigma/Ceratostigma.xlsx
+++ b/biology/Botanique/Ceratostigma/Ceratostigma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ceratostigma est un genre de plantes de la famille des Plumbaginacées.
 Nom chinois : 蓝雪花属
@@ -513,7 +525,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom du genre vient du grec ancien κέρας (génitif κέρατος), "corne" et στίγμα, "marque, stigmate", par référence aux structures en forme de cornicule du stigmate du pistil.
 </t>
@@ -544,10 +558,12 @@
           <t>Position taxinomique et historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1833, Alexander Andrejewitsch von Bunge décrit le genre avec comme espèce type : Cerastostigma plumbaginoides[1].
-En 1842, Christian Ferdinand Friedrich Hochstetter redécrit le genre sous le nom de Valoradia, avec deux espèces africaines (qui sont en fait synonymes)[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1833, Alexander Andrejewitsch von Bunge décrit le genre avec comme espèce type : Cerastostigma plumbaginoides.
+En 1842, Christian Ferdinand Friedrich Hochstetter redécrit le genre sous le nom de Valoradia, avec deux espèces africaines (qui sont en fait synonymes).
 Le genre Valoradia Hochst. est un genre synonyme.
 </t>
         </is>
@@ -577,7 +593,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit de petits arbustes ou plantes herbacées vivaces.
 Les feuilles sont bordées de poils incurvés.
@@ -610,7 +628,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre est originaire d'Afrique de l'Est et d'Asie.
 L'utilisation ornementale de certaines espèces a répandu ce genre à l'ensemble des pays à climat tempéré.
@@ -642,7 +662,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>La liste des espèces a été constituée à partir des index IPNI (International Plant Names Index) et Tropicos (Index du jardin botanique du Missouri), à la date de décembre 2011 :
 Ceratostigma abyssinicum (Hochst.) Schweinf. &amp; Asch. (1867) - synonymes : Valoradia abyssinica Hochst., Valoradia patula Hochst.
